--- a/GLP1_weight_tracking_master.xlsx
+++ b/GLP1_weight_tracking_master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\ipro-sw\GLP1-weight-tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7D6ED1-7B9A-469E-BFD6-90268755F0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F7AAEF-AE41-4909-840E-F775930CD1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11664" yWindow="-19368" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Log" sheetId="1" r:id="rId1"/>
@@ -419,7 +419,7 @@
                   <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>108</c:v>
+                  <c:v>106.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1202,13 +1202,13 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="14.69921875" customWidth="1"/>
-    <col min="6" max="8" width="18.69921875" customWidth="1"/>
+    <col min="1" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="8" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -1367,7 +1367,7 @@
         <v>107</v>
       </c>
       <c r="C9">
-        <v>108</v>
+        <v>106.8</v>
       </c>
       <c r="D9">
         <v>30.4</v>
@@ -1399,10 +1399,10 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.69921875" customWidth="1"/>
-    <col min="2" max="4" width="24.69921875" customWidth="1"/>
+    <col min="1" max="1" width="32.75" customWidth="1"/>
+    <col min="2" max="4" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="B14" s="3">
         <f>INDEX('Daily Log'!$C:$C, MATCH($B$6,'Daily Log'!$A:$A, 0))</f>
-        <v>108</v>
+        <v>106.8</v>
       </c>
       <c r="D14" t="s">
         <v>29</v>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B15" s="3">
         <f>B14-B13</f>
-        <v>-1.7999999999999972</v>
+        <v>-3</v>
       </c>
       <c r="D15" t="s">
         <v>30</v>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="B16" s="3">
         <f>IFERROR(SUMIFS('Daily Log'!$C:$C,'Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6)/COUNTIFS('Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6),"")</f>
-        <v>108.57142857142857</v>
+        <v>108.39999999999999</v>
       </c>
       <c r="D16" t="s">
         <v>31</v>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="B17" s="3">
         <f>IF(AND(B12&lt;&gt;"",B16&lt;&gt;""),AVERAGE(B12,B16),"")</f>
-        <v>108.32857142857142</v>
+        <v>108.24285714285713</v>
       </c>
       <c r="D17" t="s">
         <v>32</v>
@@ -1622,7 +1622,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
@@ -1644,12 +1644,12 @@
       <selection activeCell="A8" sqref="A8:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="100.69921875" customWidth="1"/>
+    <col min="1" max="1" width="100.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="174" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="180" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>37</v>
       </c>

--- a/GLP1_weight_tracking_master.xlsx
+++ b/GLP1_weight_tracking_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\ipro-sw\GLP1-weight-tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F7AAEF-AE41-4909-840E-F775930CD1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3632B07-37A1-423D-B16E-82924F5C89E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -289,10 +289,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Daily Log'!$A$3:$A$1000</c:f>
+              <c:f>'Daily Log'!$A$3:$A$1001</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="998"/>
+                <c:ptCount val="999"/>
                 <c:pt idx="0">
                   <c:v>45884</c:v>
                 </c:pt>
@@ -313,16 +313,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>45890</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily Log'!$B$3:$B$1000</c:f>
+              <c:f>'Daily Log'!$B$3:$B$1001</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="998"/>
+                <c:ptCount val="999"/>
                 <c:pt idx="0">
                   <c:v>109</c:v>
                 </c:pt>
@@ -343,6 +346,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>106.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -366,10 +372,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Daily Log'!$A$3:$A$1000</c:f>
+              <c:f>'Daily Log'!$A$3:$A$1001</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="998"/>
+                <c:ptCount val="999"/>
                 <c:pt idx="0">
                   <c:v>45884</c:v>
                 </c:pt>
@@ -390,16 +396,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>45890</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily Log'!$C$3:$C$1000</c:f>
+              <c:f>'Daily Log'!$C$3:$C$1001</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="998"/>
+                <c:ptCount val="999"/>
                 <c:pt idx="0">
                   <c:v>109.8</c:v>
                 </c:pt>
@@ -420,6 +429,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>106.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>106.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -580,10 +592,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Daily Log'!$A$3:$A$1000</c:f>
+              <c:f>'Daily Log'!$A$3:$A$1001</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="998"/>
+                <c:ptCount val="999"/>
                 <c:pt idx="0">
                   <c:v>45884</c:v>
                 </c:pt>
@@ -604,16 +616,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>45890</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily Log'!$D$3:$D$1000</c:f>
+              <c:f>'Daily Log'!$D$3:$D$1001</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="998"/>
+                <c:ptCount val="999"/>
                 <c:pt idx="1">
                   <c:v>30.3</c:v>
                 </c:pt>
@@ -630,6 +645,9 @@
                   <c:v>30.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>30.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>30.4</c:v>
                 </c:pt>
               </c:numCache>
@@ -654,10 +672,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Daily Log'!$A$3:$A$1000</c:f>
+              <c:f>'Daily Log'!$A$3:$A$1001</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="998"/>
+                <c:ptCount val="999"/>
                 <c:pt idx="0">
                   <c:v>45884</c:v>
                 </c:pt>
@@ -678,16 +696,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>45890</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily Log'!$E$3:$E$1000</c:f>
+              <c:f>'Daily Log'!$E$3:$E$1001</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="998"/>
+                <c:ptCount val="999"/>
                 <c:pt idx="0">
                   <c:v>29</c:v>
                 </c:pt>
@@ -708,6 +729,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -896,8 +920,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DailyTable" displayName="DailyTable" ref="A2:H9" totalsRowShown="0">
-  <autoFilter ref="A2:H9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DailyTable" displayName="DailyTable" ref="A2:H10" totalsRowShown="0">
+  <autoFilter ref="A2:H10" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="日期"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="早上體重 (kg)"/>
@@ -1199,10 +1223,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1380,6 +1404,26 @@
       </c>
       <c r="G9">
         <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45891</v>
+      </c>
+      <c r="B10">
+        <v>106.2</v>
+      </c>
+      <c r="C10">
+        <v>106.9</v>
+      </c>
+      <c r="D10">
+        <v>30.4</v>
+      </c>
+      <c r="E10">
+        <v>28.4</v>
+      </c>
+      <c r="F10">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
@@ -1426,7 +1470,7 @@
       </c>
       <c r="B5" s="1">
         <f>IF(LEN(B2)&gt;0,B2,INDEX('Daily Log'!$A:$A,COUNTA('Daily Log'!$A:$A)-6))</f>
-        <v>45884</v>
+        <v>45885</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1435,7 +1479,7 @@
       </c>
       <c r="B6" s="1">
         <f>IF(LEN(B3)&gt;0,B3,INDEX('Daily Log'!$A:$A,COUNTA('Daily Log'!$A:$A)))</f>
-        <v>45890</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1456,7 +1500,7 @@
       </c>
       <c r="E9" s="3">
         <f>INDEX('Daily Log'!$D:$D, MATCH($B$5,'Daily Log'!$A:$A, 0))</f>
-        <v>0</v>
+        <v>30.3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1465,7 +1509,7 @@
       </c>
       <c r="B10" s="3">
         <f>INDEX('Daily Log'!$B:$B, MATCH($B$6,'Daily Log'!$A:$A, 0))</f>
-        <v>107</v>
+        <v>106.2</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -1481,14 +1525,14 @@
       </c>
       <c r="B11" s="3">
         <f>B10-B9</f>
-        <v>-2</v>
+        <v>-2.7999999999999972</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="3">
         <f>E10-E9</f>
-        <v>30.4</v>
+        <v>9.9999999999997868E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1497,14 +1541,14 @@
       </c>
       <c r="B12" s="3">
         <f>IFERROR(SUMIFS('Daily Log'!$B:$B,'Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6)/COUNTIFS('Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6),"")</f>
-        <v>108.08571428571429</v>
+        <v>107.6857142857143</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="3">
         <f>IFERROR(SUMIFS('Daily Log'!$D:$D,'Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6)/COUNTIFS('Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6),"")</f>
-        <v>26.114285714285717</v>
+        <v>30.457142857142859</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1513,14 +1557,14 @@
       </c>
       <c r="B13" s="3">
         <f>INDEX('Daily Log'!$C:$C, MATCH($B$5,'Daily Log'!$A:$A, 0))</f>
-        <v>109.8</v>
+        <v>108.2</v>
       </c>
       <c r="D13" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="3">
         <f>INDEX('Daily Log'!$E:$E, MATCH($B$5,'Daily Log'!$A:$A, 0))</f>
-        <v>29</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1529,14 +1573,14 @@
       </c>
       <c r="B14" s="3">
         <f>INDEX('Daily Log'!$C:$C, MATCH($B$6,'Daily Log'!$A:$A, 0))</f>
-        <v>106.8</v>
+        <v>106.9</v>
       </c>
       <c r="D14" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="3">
         <f>INDEX('Daily Log'!$E:$E, MATCH($B$6,'Daily Log'!$A:$A, 0))</f>
-        <v>27</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1545,14 +1589,14 @@
       </c>
       <c r="B15" s="3">
         <f>B14-B13</f>
-        <v>-3</v>
+        <v>-1.2999999999999972</v>
       </c>
       <c r="D15" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="3">
         <f>E14-E13</f>
-        <v>-2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1561,14 +1605,14 @@
       </c>
       <c r="B16" s="3">
         <f>IFERROR(SUMIFS('Daily Log'!$C:$C,'Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6)/COUNTIFS('Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6),"")</f>
-        <v>108.39999999999999</v>
+        <v>107.98571428571428</v>
       </c>
       <c r="D16" t="s">
         <v>31</v>
       </c>
       <c r="E16" s="3">
         <f>IFERROR(SUMIFS('Daily Log'!$E:$E,'Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6)/COUNTIFS('Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6),"")</f>
-        <v>28.257142857142856</v>
+        <v>28.171428571428571</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1577,14 +1621,14 @@
       </c>
       <c r="B17" s="3">
         <f>IF(AND(B12&lt;&gt;"",B16&lt;&gt;""),AVERAGE(B12,B16),"")</f>
-        <v>108.24285714285713</v>
+        <v>107.83571428571429</v>
       </c>
       <c r="D17" t="s">
         <v>32</v>
       </c>
       <c r="E17" s="3">
         <f>IF(AND(E12&lt;&gt;"",E16&lt;&gt;""),AVERAGE(E12,E16),"")</f>
-        <v>27.185714285714287</v>
+        <v>29.314285714285717</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">

--- a/GLP1_weight_tracking_master.xlsx
+++ b/GLP1_weight_tracking_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\ipro-sw\GLP1-weight-tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3632B07-37A1-423D-B16E-82924F5C89E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FD148D-14A1-4D46-B070-B3BAA74CFF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -317,6 +317,21 @@
                 <c:pt idx="7">
                   <c:v>45891</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>45892</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45893</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45894</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45895</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45896</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -349,6 +364,15 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>106.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>105.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>105.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>105.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -400,6 +424,21 @@
                 <c:pt idx="7">
                   <c:v>45891</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>45892</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45893</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45894</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45895</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45896</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -432,6 +471,15 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>106.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>106.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>106.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>105.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -620,6 +668,21 @@
                 <c:pt idx="7">
                   <c:v>45891</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>45892</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45893</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45894</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45895</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45896</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -649,6 +712,15 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>30.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -700,6 +772,21 @@
                 <c:pt idx="7">
                   <c:v>45891</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>45892</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45893</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45894</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45895</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45896</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -732,6 +819,15 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>28.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -920,8 +1016,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DailyTable" displayName="DailyTable" ref="A2:H10" totalsRowShown="0">
-  <autoFilter ref="A2:H10" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DailyTable" displayName="DailyTable" ref="A2:H22" totalsRowShown="0">
+  <autoFilter ref="A2:H22" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="日期"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="早上體重 (kg)"/>
@@ -1223,10 +1319,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1402,9 +1498,6 @@
       <c r="F9">
         <v>2.5</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -1425,6 +1518,100 @@
       <c r="F10">
         <v>2.5</v>
       </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45892</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45893</v>
+      </c>
+      <c r="C12">
+        <v>106.5</v>
+      </c>
+      <c r="E12">
+        <v>28.8</v>
+      </c>
+      <c r="F12">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45894</v>
+      </c>
+      <c r="B13">
+        <v>105.8</v>
+      </c>
+      <c r="C13">
+        <v>106.2</v>
+      </c>
+      <c r="D13">
+        <v>30.6</v>
+      </c>
+      <c r="E13">
+        <v>27.4</v>
+      </c>
+      <c r="F13">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45895</v>
+      </c>
+      <c r="B14">
+        <v>105.6</v>
+      </c>
+      <c r="C14">
+        <v>105.9</v>
+      </c>
+      <c r="D14">
+        <v>30.1</v>
+      </c>
+      <c r="E14">
+        <v>29.1</v>
+      </c>
+      <c r="F14">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45896</v>
+      </c>
+      <c r="B15">
+        <v>105.2</v>
+      </c>
+      <c r="D15">
+        <v>30</v>
+      </c>
+      <c r="F15">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1440,7 +1627,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1470,7 +1657,7 @@
       </c>
       <c r="B5" s="1">
         <f>IF(LEN(B2)&gt;0,B2,INDEX('Daily Log'!$A:$A,COUNTA('Daily Log'!$A:$A)-6))</f>
-        <v>45885</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1479,7 +1666,7 @@
       </c>
       <c r="B6" s="1">
         <f>IF(LEN(B3)&gt;0,B3,INDEX('Daily Log'!$A:$A,COUNTA('Daily Log'!$A:$A)))</f>
-        <v>45891</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1493,14 +1680,14 @@
       </c>
       <c r="B9" s="3">
         <f>INDEX('Daily Log'!$B:$B, MATCH($B$5,'Daily Log'!$A:$A, 0))</f>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="3">
         <f>INDEX('Daily Log'!$D:$D, MATCH($B$5,'Daily Log'!$A:$A, 0))</f>
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1509,14 +1696,14 @@
       </c>
       <c r="B10" s="3">
         <f>INDEX('Daily Log'!$B:$B, MATCH($B$6,'Daily Log'!$A:$A, 0))</f>
-        <v>106.2</v>
+        <v>105.2</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="3">
         <f>INDEX('Daily Log'!$D:$D, MATCH($B$6,'Daily Log'!$A:$A, 0))</f>
-        <v>30.4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1525,14 +1712,14 @@
       </c>
       <c r="B11" s="3">
         <f>B10-B9</f>
-        <v>-2.7999999999999972</v>
+        <v>-1.7999999999999972</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="3">
         <f>E10-E9</f>
-        <v>9.9999999999997868E-2</v>
+        <v>-0.39999999999999858</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1541,14 +1728,14 @@
       </c>
       <c r="B12" s="3">
         <f>IFERROR(SUMIFS('Daily Log'!$B:$B,'Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6)/COUNTIFS('Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6),"")</f>
-        <v>107.6857142857143</v>
+        <v>75.685714285714297</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="3">
         <f>IFERROR(SUMIFS('Daily Log'!$D:$D,'Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6)/COUNTIFS('Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6),"")</f>
-        <v>30.457142857142859</v>
+        <v>21.642857142857142</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1557,14 +1744,14 @@
       </c>
       <c r="B13" s="3">
         <f>INDEX('Daily Log'!$C:$C, MATCH($B$5,'Daily Log'!$A:$A, 0))</f>
-        <v>108.2</v>
+        <v>106.8</v>
       </c>
       <c r="D13" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="3">
         <f>INDEX('Daily Log'!$E:$E, MATCH($B$5,'Daily Log'!$A:$A, 0))</f>
-        <v>27.9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1573,14 +1760,14 @@
       </c>
       <c r="B14" s="3">
         <f>INDEX('Daily Log'!$C:$C, MATCH($B$6,'Daily Log'!$A:$A, 0))</f>
-        <v>106.9</v>
+        <v>0</v>
       </c>
       <c r="D14" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="3">
         <f>INDEX('Daily Log'!$E:$E, MATCH($B$6,'Daily Log'!$A:$A, 0))</f>
-        <v>28.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1589,14 +1776,14 @@
       </c>
       <c r="B15" s="3">
         <f>B14-B13</f>
-        <v>-1.2999999999999972</v>
+        <v>-106.8</v>
       </c>
       <c r="D15" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="3">
         <f>E14-E13</f>
-        <v>0.5</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1605,14 +1792,14 @@
       </c>
       <c r="B16" s="3">
         <f>IFERROR(SUMIFS('Daily Log'!$C:$C,'Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6)/COUNTIFS('Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6),"")</f>
-        <v>107.98571428571428</v>
+        <v>76.04285714285713</v>
       </c>
       <c r="D16" t="s">
         <v>31</v>
       </c>
       <c r="E16" s="3">
         <f>IFERROR(SUMIFS('Daily Log'!$E:$E,'Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6)/COUNTIFS('Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6),"")</f>
-        <v>28.171428571428571</v>
+        <v>20.099999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1621,14 +1808,14 @@
       </c>
       <c r="B17" s="3">
         <f>IF(AND(B12&lt;&gt;"",B16&lt;&gt;""),AVERAGE(B12,B16),"")</f>
-        <v>107.83571428571429</v>
+        <v>75.864285714285714</v>
       </c>
       <c r="D17" t="s">
         <v>32</v>
       </c>
       <c r="E17" s="3">
         <f>IF(AND(E12&lt;&gt;"",E16&lt;&gt;""),AVERAGE(E12,E16),"")</f>
-        <v>29.314285714285717</v>
+        <v>20.87142857142857</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">

--- a/GLP1_weight_tracking_master.xlsx
+++ b/GLP1_weight_tracking_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\ipro-sw\GLP1-weight-tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FD148D-14A1-4D46-B070-B3BAA74CFF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B61E9A-017F-41B1-BA61-388C8BED5E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -332,6 +332,9 @@
                 <c:pt idx="12">
                   <c:v>45896</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>45897</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -373,6 +376,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>105.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>104.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -439,6 +445,9 @@
                 <c:pt idx="12">
                   <c:v>45896</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>45897</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -480,6 +489,12 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>105.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>105.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>105.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -683,6 +698,9 @@
                 <c:pt idx="12">
                   <c:v>45896</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>45897</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -721,6 +739,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -787,6 +808,9 @@
                 <c:pt idx="12">
                   <c:v>45896</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>45897</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -828,6 +852,12 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>29.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1322,7 +1352,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1585,15 +1615,38 @@
       <c r="B15">
         <v>105.2</v>
       </c>
+      <c r="C15">
+        <v>105.9</v>
+      </c>
       <c r="D15">
         <v>30</v>
       </c>
+      <c r="E15">
+        <v>28.3</v>
+      </c>
       <c r="F15">
         <v>2.5</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1">
+        <v>45897</v>
+      </c>
+      <c r="B16">
+        <v>104.8</v>
+      </c>
+      <c r="C16">
+        <v>105.5</v>
+      </c>
+      <c r="D16">
+        <v>30.4</v>
+      </c>
+      <c r="E16">
+        <v>27.9</v>
+      </c>
+      <c r="F16">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
@@ -1657,7 +1710,7 @@
       </c>
       <c r="B5" s="1">
         <f>IF(LEN(B2)&gt;0,B2,INDEX('Daily Log'!$A:$A,COUNTA('Daily Log'!$A:$A)-6))</f>
-        <v>45890</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1666,7 +1719,7 @@
       </c>
       <c r="B6" s="1">
         <f>IF(LEN(B3)&gt;0,B3,INDEX('Daily Log'!$A:$A,COUNTA('Daily Log'!$A:$A)))</f>
-        <v>45896</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1680,7 +1733,7 @@
       </c>
       <c r="B9" s="3">
         <f>INDEX('Daily Log'!$B:$B, MATCH($B$5,'Daily Log'!$A:$A, 0))</f>
-        <v>107</v>
+        <v>106.2</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -1696,14 +1749,14 @@
       </c>
       <c r="B10" s="3">
         <f>INDEX('Daily Log'!$B:$B, MATCH($B$6,'Daily Log'!$A:$A, 0))</f>
-        <v>105.2</v>
+        <v>104.8</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="3">
         <f>INDEX('Daily Log'!$D:$D, MATCH($B$6,'Daily Log'!$A:$A, 0))</f>
-        <v>30</v>
+        <v>30.4</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1712,14 +1765,14 @@
       </c>
       <c r="B11" s="3">
         <f>B10-B9</f>
-        <v>-1.7999999999999972</v>
+        <v>-1.4000000000000057</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="3">
         <f>E10-E9</f>
-        <v>-0.39999999999999858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1728,7 +1781,7 @@
       </c>
       <c r="B12" s="3">
         <f>IFERROR(SUMIFS('Daily Log'!$B:$B,'Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6)/COUNTIFS('Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6),"")</f>
-        <v>75.685714285714297</v>
+        <v>75.371428571428581</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
@@ -1744,14 +1797,14 @@
       </c>
       <c r="B13" s="3">
         <f>INDEX('Daily Log'!$C:$C, MATCH($B$5,'Daily Log'!$A:$A, 0))</f>
-        <v>106.8</v>
+        <v>106.9</v>
       </c>
       <c r="D13" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="3">
         <f>INDEX('Daily Log'!$E:$E, MATCH($B$5,'Daily Log'!$A:$A, 0))</f>
-        <v>27</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1760,14 +1813,14 @@
       </c>
       <c r="B14" s="3">
         <f>INDEX('Daily Log'!$C:$C, MATCH($B$6,'Daily Log'!$A:$A, 0))</f>
-        <v>0</v>
+        <v>105.5</v>
       </c>
       <c r="D14" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="3">
         <f>INDEX('Daily Log'!$E:$E, MATCH($B$6,'Daily Log'!$A:$A, 0))</f>
-        <v>0</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1776,14 +1829,14 @@
       </c>
       <c r="B15" s="3">
         <f>B14-B13</f>
-        <v>-106.8</v>
+        <v>-1.4000000000000057</v>
       </c>
       <c r="D15" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="3">
         <f>E14-E13</f>
-        <v>-27</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1792,14 +1845,14 @@
       </c>
       <c r="B16" s="3">
         <f>IFERROR(SUMIFS('Daily Log'!$C:$C,'Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6)/COUNTIFS('Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6),"")</f>
-        <v>76.04285714285713</v>
+        <v>90.98571428571428</v>
       </c>
       <c r="D16" t="s">
         <v>31</v>
       </c>
       <c r="E16" s="3">
         <f>IFERROR(SUMIFS('Daily Log'!$E:$E,'Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6)/COUNTIFS('Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6),"")</f>
-        <v>20.099999999999998</v>
+        <v>24.271428571428572</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1808,14 +1861,14 @@
       </c>
       <c r="B17" s="3">
         <f>IF(AND(B12&lt;&gt;"",B16&lt;&gt;""),AVERAGE(B12,B16),"")</f>
-        <v>75.864285714285714</v>
+        <v>83.178571428571431</v>
       </c>
       <c r="D17" t="s">
         <v>32</v>
       </c>
       <c r="E17" s="3">
         <f>IF(AND(E12&lt;&gt;"",E16&lt;&gt;""),AVERAGE(E12,E16),"")</f>
-        <v>20.87142857142857</v>
+        <v>22.957142857142856</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">

--- a/GLP1_weight_tracking_master.xlsx
+++ b/GLP1_weight_tracking_master.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\ipro-sw\GLP1-weight-tracking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\rex\GLP1-weight-tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B61E9A-017F-41B1-BA61-388C8BED5E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2841BE2B-01CA-40BF-82E2-E7488A23C564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="26116" windowHeight="15661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Log" sheetId="1" r:id="rId1"/>
@@ -335,6 +335,18 @@
                 <c:pt idx="13">
                   <c:v>45897</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45899</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45901</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -379,6 +391,18 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>104.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>105.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>104.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>103.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -448,6 +472,18 @@
                 <c:pt idx="13">
                   <c:v>45897</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45899</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45901</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -495,6 +531,15 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>105.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>104.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>104.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>104.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -701,6 +746,18 @@
                 <c:pt idx="13">
                   <c:v>45897</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45899</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45901</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -742,6 +799,18 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>30.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -811,6 +880,18 @@
                 <c:pt idx="13">
                   <c:v>45897</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45899</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45901</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -858,6 +939,15 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>27.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1352,21 +1442,21 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="8" width="18.75" customWidth="1"/>
+    <col min="1" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="8" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1392,7 +1482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>45884</v>
       </c>
@@ -1409,7 +1499,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>45885</v>
       </c>
@@ -1429,7 +1519,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>45886</v>
       </c>
@@ -1449,7 +1539,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>45887</v>
       </c>
@@ -1469,7 +1559,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>45888</v>
       </c>
@@ -1489,7 +1579,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>45889</v>
       </c>
@@ -1509,7 +1599,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>45890</v>
       </c>
@@ -1529,7 +1619,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>45891</v>
       </c>
@@ -1549,12 +1639,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>45892</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>45893</v>
       </c>
@@ -1568,7 +1658,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>45894</v>
       </c>
@@ -1588,7 +1678,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>45895</v>
       </c>
@@ -1608,7 +1698,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>45896</v>
       </c>
@@ -1628,7 +1718,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>45897</v>
       </c>
@@ -1648,22 +1738,84 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B17">
+        <v>105.1</v>
+      </c>
+      <c r="C17">
+        <v>104.7</v>
+      </c>
+      <c r="D17">
+        <v>30.2</v>
+      </c>
+      <c r="E17">
+        <v>28.1</v>
+      </c>
+      <c r="F17">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>45899</v>
+      </c>
+      <c r="B18">
+        <v>104.3</v>
+      </c>
+      <c r="C18">
+        <v>104.2</v>
+      </c>
+      <c r="D18">
+        <v>30.2</v>
+      </c>
+      <c r="E18">
+        <v>27.9</v>
+      </c>
+      <c r="F18">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>45900</v>
+      </c>
+      <c r="B19">
+        <v>103.6</v>
+      </c>
+      <c r="C19">
+        <v>104.1</v>
+      </c>
+      <c r="D19">
+        <v>30.1</v>
+      </c>
+      <c r="E19">
+        <v>29.4</v>
+      </c>
+      <c r="F19">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>45901</v>
+      </c>
+      <c r="B20">
+        <v>104</v>
+      </c>
+      <c r="D20">
+        <v>30.3</v>
+      </c>
+      <c r="F20">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
     </row>
   </sheetData>
@@ -1683,200 +1835,200 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="32.75" customWidth="1"/>
-    <col min="2" max="4" width="24.75" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="4" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1">
         <f>IF(LEN(B2)&gt;0,B2,INDEX('Daily Log'!$A:$A,COUNTA('Daily Log'!$A:$A)-6))</f>
-        <v>45891</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="1">
         <f>IF(LEN(B3)&gt;0,B3,INDEX('Daily Log'!$A:$A,COUNTA('Daily Log'!$A:$A)))</f>
-        <v>45897</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="3">
         <f>INDEX('Daily Log'!$B:$B, MATCH($B$5,'Daily Log'!$A:$A, 0))</f>
-        <v>106.2</v>
+        <v>105.6</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="3">
         <f>INDEX('Daily Log'!$D:$D, MATCH($B$5,'Daily Log'!$A:$A, 0))</f>
-        <v>30.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>30.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="3">
         <f>INDEX('Daily Log'!$B:$B, MATCH($B$6,'Daily Log'!$A:$A, 0))</f>
-        <v>104.8</v>
+        <v>104</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="3">
         <f>INDEX('Daily Log'!$D:$D, MATCH($B$6,'Daily Log'!$A:$A, 0))</f>
-        <v>30.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="3">
         <f>B10-B9</f>
-        <v>-1.4000000000000057</v>
+        <v>-1.5999999999999943</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="3">
         <f>E10-E9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.19999999999999929</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="3">
         <f>IFERROR(SUMIFS('Daily Log'!$B:$B,'Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6)/COUNTIFS('Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6),"")</f>
-        <v>75.371428571428581</v>
+        <v>104.65714285714286</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="3">
         <f>IFERROR(SUMIFS('Daily Log'!$D:$D,'Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6)/COUNTIFS('Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6),"")</f>
-        <v>21.642857142857142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>30.185714285714287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="3">
         <f>INDEX('Daily Log'!$C:$C, MATCH($B$5,'Daily Log'!$A:$A, 0))</f>
-        <v>106.9</v>
+        <v>105.9</v>
       </c>
       <c r="D13" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="3">
         <f>INDEX('Daily Log'!$E:$E, MATCH($B$5,'Daily Log'!$A:$A, 0))</f>
-        <v>28.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="3">
         <f>INDEX('Daily Log'!$C:$C, MATCH($B$6,'Daily Log'!$A:$A, 0))</f>
-        <v>105.5</v>
+        <v>0</v>
       </c>
       <c r="D14" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="3">
         <f>INDEX('Daily Log'!$E:$E, MATCH($B$6,'Daily Log'!$A:$A, 0))</f>
-        <v>27.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="3">
         <f>B14-B13</f>
-        <v>-1.4000000000000057</v>
+        <v>-105.9</v>
       </c>
       <c r="D15" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="3">
         <f>E14-E13</f>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-29.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="3">
         <f>IFERROR(SUMIFS('Daily Log'!$C:$C,'Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6)/COUNTIFS('Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6),"")</f>
-        <v>90.98571428571428</v>
+        <v>90.042857142857159</v>
       </c>
       <c r="D16" t="s">
         <v>31</v>
       </c>
       <c r="E16" s="3">
         <f>IFERROR(SUMIFS('Daily Log'!$E:$E,'Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6)/COUNTIFS('Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6),"")</f>
-        <v>24.271428571428572</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>24.38571428571429</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="3">
         <f>IF(AND(B12&lt;&gt;"",B16&lt;&gt;""),AVERAGE(B12,B16),"")</f>
-        <v>83.178571428571431</v>
+        <v>97.350000000000009</v>
       </c>
       <c r="D17" t="s">
         <v>32</v>
       </c>
       <c r="E17" s="3">
         <f>IF(AND(E12&lt;&gt;"",E16&lt;&gt;""),AVERAGE(E12,E16),"")</f>
-        <v>22.957142857142856</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>27.285714285714288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -1885,7 +2037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -1906,9 +2058,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
@@ -1928,12 +2080,12 @@
       <selection activeCell="A8" sqref="A8:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="100.75" customWidth="1"/>
+    <col min="1" max="1" width="100.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="180" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="180" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>37</v>
       </c>

--- a/GLP1_weight_tracking_master.xlsx
+++ b/GLP1_weight_tracking_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\rex\GLP1-weight-tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2841BE2B-01CA-40BF-82E2-E7488A23C564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A9B422-B05F-43EA-8A80-D49EC377FC0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="26116" windowHeight="15661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -347,6 +347,12 @@
                 <c:pt idx="17">
                   <c:v>45901</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>45902</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45903</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -403,6 +409,12 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>103.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>103.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -484,6 +496,12 @@
                 <c:pt idx="17">
                   <c:v>45901</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>45902</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45903</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -540,6 +558,12 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>104.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>103.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>103.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -758,6 +782,12 @@
                 <c:pt idx="17">
                   <c:v>45901</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>45902</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45903</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -811,6 +841,12 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>30.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -892,6 +928,12 @@
                 <c:pt idx="17">
                   <c:v>45901</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>45902</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45903</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -948,6 +990,12 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>29.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1442,7 +1490,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -1805,18 +1853,52 @@
       <c r="B20">
         <v>104</v>
       </c>
+      <c r="C20">
+        <v>103.6</v>
+      </c>
       <c r="D20">
         <v>30.3</v>
       </c>
+      <c r="E20">
+        <v>28</v>
+      </c>
       <c r="F20">
         <v>2.5</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B21">
+        <v>103.9</v>
+      </c>
+      <c r="C21">
+        <v>103.9</v>
+      </c>
+      <c r="D21">
+        <v>29.7</v>
+      </c>
+      <c r="E21">
+        <v>27.7</v>
+      </c>
+      <c r="F21">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1">
+        <v>45903</v>
+      </c>
+      <c r="B22">
+        <v>103.4</v>
+      </c>
+      <c r="D22">
+        <v>29.9</v>
+      </c>
+      <c r="F22">
+        <v>2.5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1862,7 +1944,7 @@
       </c>
       <c r="B5" s="1">
         <f>IF(LEN(B2)&gt;0,B2,INDEX('Daily Log'!$A:$A,COUNTA('Daily Log'!$A:$A)-6))</f>
-        <v>45895</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -1871,7 +1953,7 @@
       </c>
       <c r="B6" s="1">
         <f>IF(LEN(B3)&gt;0,B3,INDEX('Daily Log'!$A:$A,COUNTA('Daily Log'!$A:$A)))</f>
-        <v>45901</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -1885,14 +1967,14 @@
       </c>
       <c r="B9" s="3">
         <f>INDEX('Daily Log'!$B:$B, MATCH($B$5,'Daily Log'!$A:$A, 0))</f>
-        <v>105.6</v>
+        <v>104.8</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="3">
         <f>INDEX('Daily Log'!$D:$D, MATCH($B$5,'Daily Log'!$A:$A, 0))</f>
-        <v>30.1</v>
+        <v>30.4</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -1901,14 +1983,14 @@
       </c>
       <c r="B10" s="3">
         <f>INDEX('Daily Log'!$B:$B, MATCH($B$6,'Daily Log'!$A:$A, 0))</f>
-        <v>104</v>
+        <v>103.4</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="3">
         <f>INDEX('Daily Log'!$D:$D, MATCH($B$6,'Daily Log'!$A:$A, 0))</f>
-        <v>30.3</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -1917,14 +1999,14 @@
       </c>
       <c r="B11" s="3">
         <f>B10-B9</f>
-        <v>-1.5999999999999943</v>
+        <v>-1.3999999999999915</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="3">
         <f>E10-E9</f>
-        <v>0.19999999999999929</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -1933,14 +2015,14 @@
       </c>
       <c r="B12" s="3">
         <f>IFERROR(SUMIFS('Daily Log'!$B:$B,'Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6)/COUNTIFS('Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6),"")</f>
-        <v>104.65714285714286</v>
+        <v>104.15714285714284</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="3">
         <f>IFERROR(SUMIFS('Daily Log'!$D:$D,'Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6)/COUNTIFS('Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6),"")</f>
-        <v>30.185714285714287</v>
+        <v>30.114285714285717</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -1949,14 +2031,14 @@
       </c>
       <c r="B13" s="3">
         <f>INDEX('Daily Log'!$C:$C, MATCH($B$5,'Daily Log'!$A:$A, 0))</f>
-        <v>105.9</v>
+        <v>105.5</v>
       </c>
       <c r="D13" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="3">
         <f>INDEX('Daily Log'!$E:$E, MATCH($B$5,'Daily Log'!$A:$A, 0))</f>
-        <v>29.1</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -1981,14 +2063,14 @@
       </c>
       <c r="B15" s="3">
         <f>B14-B13</f>
-        <v>-105.9</v>
+        <v>-105.5</v>
       </c>
       <c r="D15" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="3">
         <f>E14-E13</f>
-        <v>-29.1</v>
+        <v>-27.9</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -1997,14 +2079,14 @@
       </c>
       <c r="B16" s="3">
         <f>IFERROR(SUMIFS('Daily Log'!$C:$C,'Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6)/COUNTIFS('Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6),"")</f>
-        <v>90.042857142857159</v>
+        <v>89.428571428571431</v>
       </c>
       <c r="D16" t="s">
         <v>31</v>
       </c>
       <c r="E16" s="3">
         <f>IFERROR(SUMIFS('Daily Log'!$E:$E,'Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6)/COUNTIFS('Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6),"")</f>
-        <v>24.38571428571429</v>
+        <v>24.142857142857142</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -2013,14 +2095,14 @@
       </c>
       <c r="B17" s="3">
         <f>IF(AND(B12&lt;&gt;"",B16&lt;&gt;""),AVERAGE(B12,B16),"")</f>
-        <v>97.350000000000009</v>
+        <v>96.792857142857144</v>
       </c>
       <c r="D17" t="s">
         <v>32</v>
       </c>
       <c r="E17" s="3">
         <f>IF(AND(E12&lt;&gt;"",E16&lt;&gt;""),AVERAGE(E12,E16),"")</f>
-        <v>27.285714285714288</v>
+        <v>27.12857142857143</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">

--- a/GLP1_weight_tracking_master.xlsx
+++ b/GLP1_weight_tracking_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\rex\GLP1-weight-tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A9B422-B05F-43EA-8A80-D49EC377FC0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8581256-FF38-424C-A98C-D27FEA8B1D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="26116" windowHeight="15661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -353,6 +353,9 @@
                 <c:pt idx="19">
                   <c:v>45903</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>45904</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -415,6 +418,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>103.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -502,6 +508,9 @@
                 <c:pt idx="19">
                   <c:v>45903</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>45904</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -564,6 +573,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>103.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>103.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -788,6 +800,9 @@
                 <c:pt idx="19">
                   <c:v>45903</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>45904</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -847,6 +862,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>29.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>29.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -934,6 +952,9 @@
                 <c:pt idx="19">
                   <c:v>45903</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>45904</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -996,6 +1017,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>27.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1184,8 +1208,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DailyTable" displayName="DailyTable" ref="A2:H22" totalsRowShown="0">
-  <autoFilter ref="A2:H22" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DailyTable" displayName="DailyTable" ref="A2:H23" totalsRowShown="0">
+  <autoFilter ref="A2:H23" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="日期"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="早上體重 (kg)"/>
@@ -1487,10 +1511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -1893,10 +1917,30 @@
       <c r="B22">
         <v>103.4</v>
       </c>
+      <c r="C22">
+        <v>103.4</v>
+      </c>
       <c r="D22">
         <v>29.9</v>
       </c>
+      <c r="E22">
+        <v>28.4</v>
+      </c>
       <c r="F22">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <v>45904</v>
+      </c>
+      <c r="B23">
+        <v>103</v>
+      </c>
+      <c r="D23">
+        <v>29.6</v>
+      </c>
+      <c r="F23">
         <v>2.5</v>
       </c>
     </row>
@@ -1944,7 +1988,7 @@
       </c>
       <c r="B5" s="1">
         <f>IF(LEN(B2)&gt;0,B2,INDEX('Daily Log'!$A:$A,COUNTA('Daily Log'!$A:$A)-6))</f>
-        <v>45897</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -1953,7 +1997,7 @@
       </c>
       <c r="B6" s="1">
         <f>IF(LEN(B3)&gt;0,B3,INDEX('Daily Log'!$A:$A,COUNTA('Daily Log'!$A:$A)))</f>
-        <v>45903</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -1967,14 +2011,14 @@
       </c>
       <c r="B9" s="3">
         <f>INDEX('Daily Log'!$B:$B, MATCH($B$5,'Daily Log'!$A:$A, 0))</f>
-        <v>104.8</v>
+        <v>105.1</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="3">
         <f>INDEX('Daily Log'!$D:$D, MATCH($B$5,'Daily Log'!$A:$A, 0))</f>
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -1983,14 +2027,14 @@
       </c>
       <c r="B10" s="3">
         <f>INDEX('Daily Log'!$B:$B, MATCH($B$6,'Daily Log'!$A:$A, 0))</f>
-        <v>103.4</v>
+        <v>103</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="3">
         <f>INDEX('Daily Log'!$D:$D, MATCH($B$6,'Daily Log'!$A:$A, 0))</f>
-        <v>29.9</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -1999,14 +2043,14 @@
       </c>
       <c r="B11" s="3">
         <f>B10-B9</f>
-        <v>-1.3999999999999915</v>
+        <v>-2.0999999999999943</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="3">
         <f>E10-E9</f>
-        <v>-0.5</v>
+        <v>-0.59999999999999787</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -2015,14 +2059,14 @@
       </c>
       <c r="B12" s="3">
         <f>IFERROR(SUMIFS('Daily Log'!$B:$B,'Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6)/COUNTIFS('Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6),"")</f>
-        <v>104.15714285714284</v>
+        <v>103.89999999999999</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="3">
         <f>IFERROR(SUMIFS('Daily Log'!$D:$D,'Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6)/COUNTIFS('Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6),"")</f>
-        <v>30.114285714285717</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -2031,14 +2075,14 @@
       </c>
       <c r="B13" s="3">
         <f>INDEX('Daily Log'!$C:$C, MATCH($B$5,'Daily Log'!$A:$A, 0))</f>
-        <v>105.5</v>
+        <v>104.7</v>
       </c>
       <c r="D13" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="3">
         <f>INDEX('Daily Log'!$E:$E, MATCH($B$5,'Daily Log'!$A:$A, 0))</f>
-        <v>27.9</v>
+        <v>28.1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -2063,14 +2107,14 @@
       </c>
       <c r="B15" s="3">
         <f>B14-B13</f>
-        <v>-105.5</v>
+        <v>-104.7</v>
       </c>
       <c r="D15" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="3">
         <f>E14-E13</f>
-        <v>-27.9</v>
+        <v>-28.1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -2079,14 +2123,14 @@
       </c>
       <c r="B16" s="3">
         <f>IFERROR(SUMIFS('Daily Log'!$C:$C,'Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6)/COUNTIFS('Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6),"")</f>
-        <v>89.428571428571431</v>
+        <v>89.128571428571419</v>
       </c>
       <c r="D16" t="s">
         <v>31</v>
       </c>
       <c r="E16" s="3">
         <f>IFERROR(SUMIFS('Daily Log'!$E:$E,'Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6)/COUNTIFS('Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6),"")</f>
-        <v>24.142857142857142</v>
+        <v>24.214285714285715</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -2095,14 +2139,14 @@
       </c>
       <c r="B17" s="3">
         <f>IF(AND(B12&lt;&gt;"",B16&lt;&gt;""),AVERAGE(B12,B16),"")</f>
-        <v>96.792857142857144</v>
+        <v>96.514285714285705</v>
       </c>
       <c r="D17" t="s">
         <v>32</v>
       </c>
       <c r="E17" s="3">
         <f>IF(AND(E12&lt;&gt;"",E16&lt;&gt;""),AVERAGE(E12,E16),"")</f>
-        <v>27.12857142857143</v>
+        <v>27.107142857142858</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">

--- a/GLP1_weight_tracking_master.xlsx
+++ b/GLP1_weight_tracking_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\rex\GLP1-weight-tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8581256-FF38-424C-A98C-D27FEA8B1D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCF4C78-C680-4157-89C3-8F90FA978A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="26116" windowHeight="15661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -356,6 +356,9 @@
                 <c:pt idx="20">
                   <c:v>45904</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>45905</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -420,6 +423,9 @@
                   <c:v>103.4</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>103</c:v>
                 </c:pt>
               </c:numCache>
@@ -511,6 +517,9 @@
                 <c:pt idx="20">
                   <c:v>45904</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>45905</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -576,6 +585,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>103.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>103.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -803,6 +815,9 @@
                 <c:pt idx="20">
                   <c:v>45904</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>45905</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -865,6 +880,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>29.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -955,6 +973,9 @@
                 <c:pt idx="20">
                   <c:v>45904</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>45905</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1020,6 +1041,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>28.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>29.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1208,8 +1232,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DailyTable" displayName="DailyTable" ref="A2:H23" totalsRowShown="0">
-  <autoFilter ref="A2:H23" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DailyTable" displayName="DailyTable" ref="A2:H24" totalsRowShown="0">
+  <autoFilter ref="A2:H24" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="日期"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="早上體重 (kg)"/>
@@ -1511,10 +1535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -1937,10 +1961,30 @@
       <c r="B23">
         <v>103</v>
       </c>
+      <c r="C23">
+        <v>103.8</v>
+      </c>
       <c r="D23">
         <v>29.6</v>
       </c>
+      <c r="E23">
+        <v>29.5</v>
+      </c>
       <c r="F23">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
+        <v>45905</v>
+      </c>
+      <c r="B24">
+        <v>103</v>
+      </c>
+      <c r="D24">
+        <v>30</v>
+      </c>
+      <c r="F24">
         <v>2.5</v>
       </c>
     </row>
@@ -1988,7 +2032,7 @@
       </c>
       <c r="B5" s="1">
         <f>IF(LEN(B2)&gt;0,B2,INDEX('Daily Log'!$A:$A,COUNTA('Daily Log'!$A:$A)-6))</f>
-        <v>45898</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -1997,7 +2041,7 @@
       </c>
       <c r="B6" s="1">
         <f>IF(LEN(B3)&gt;0,B3,INDEX('Daily Log'!$A:$A,COUNTA('Daily Log'!$A:$A)))</f>
-        <v>45904</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -2011,7 +2055,7 @@
       </c>
       <c r="B9" s="3">
         <f>INDEX('Daily Log'!$B:$B, MATCH($B$5,'Daily Log'!$A:$A, 0))</f>
-        <v>105.1</v>
+        <v>104.3</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -2034,7 +2078,7 @@
       </c>
       <c r="E10" s="3">
         <f>INDEX('Daily Log'!$D:$D, MATCH($B$6,'Daily Log'!$A:$A, 0))</f>
-        <v>29.6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -2043,14 +2087,14 @@
       </c>
       <c r="B11" s="3">
         <f>B10-B9</f>
-        <v>-2.0999999999999943</v>
+        <v>-1.2999999999999972</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="3">
         <f>E10-E9</f>
-        <v>-0.59999999999999787</v>
+        <v>-0.19999999999999929</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -2059,14 +2103,14 @@
       </c>
       <c r="B12" s="3">
         <f>IFERROR(SUMIFS('Daily Log'!$B:$B,'Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6)/COUNTIFS('Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6),"")</f>
-        <v>103.89999999999999</v>
+        <v>103.6</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="3">
         <f>IFERROR(SUMIFS('Daily Log'!$D:$D,'Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6)/COUNTIFS('Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6),"")</f>
-        <v>30</v>
+        <v>29.971428571428568</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -2075,14 +2119,14 @@
       </c>
       <c r="B13" s="3">
         <f>INDEX('Daily Log'!$C:$C, MATCH($B$5,'Daily Log'!$A:$A, 0))</f>
-        <v>104.7</v>
+        <v>104.2</v>
       </c>
       <c r="D13" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="3">
         <f>INDEX('Daily Log'!$E:$E, MATCH($B$5,'Daily Log'!$A:$A, 0))</f>
-        <v>28.1</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -2107,14 +2151,14 @@
       </c>
       <c r="B15" s="3">
         <f>B14-B13</f>
-        <v>-104.7</v>
+        <v>-104.2</v>
       </c>
       <c r="D15" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="3">
         <f>E14-E13</f>
-        <v>-28.1</v>
+        <v>-27.9</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -2123,14 +2167,14 @@
       </c>
       <c r="B16" s="3">
         <f>IFERROR(SUMIFS('Daily Log'!$C:$C,'Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6)/COUNTIFS('Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6),"")</f>
-        <v>89.128571428571419</v>
+        <v>88.999999999999986</v>
       </c>
       <c r="D16" t="s">
         <v>31</v>
       </c>
       <c r="E16" s="3">
         <f>IFERROR(SUMIFS('Daily Log'!$E:$E,'Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6)/COUNTIFS('Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6),"")</f>
-        <v>24.214285714285715</v>
+        <v>24.414285714285715</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -2139,14 +2183,14 @@
       </c>
       <c r="B17" s="3">
         <f>IF(AND(B12&lt;&gt;"",B16&lt;&gt;""),AVERAGE(B12,B16),"")</f>
-        <v>96.514285714285705</v>
+        <v>96.299999999999983</v>
       </c>
       <c r="D17" t="s">
         <v>32</v>
       </c>
       <c r="E17" s="3">
         <f>IF(AND(E12&lt;&gt;"",E16&lt;&gt;""),AVERAGE(E12,E16),"")</f>
-        <v>27.107142857142858</v>
+        <v>27.192857142857143</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">

--- a/GLP1_weight_tracking_master.xlsx
+++ b/GLP1_weight_tracking_master.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\rex\GLP1-weight-tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCF4C78-C680-4157-89C3-8F90FA978A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662918FF-A705-481B-803E-420885E95DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="26116" windowHeight="15661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -289,10 +289,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Daily Log'!$A$3:$A$1001</c:f>
+              <c:f>'Daily Log'!$A$3:$A$1002</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="999"/>
+                <c:ptCount val="1000"/>
                 <c:pt idx="0">
                   <c:v>45884</c:v>
                 </c:pt>
@@ -358,16 +358,25 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45905</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45906</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45907</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily Log'!$B$3:$B$1001</c:f>
+              <c:f>'Daily Log'!$B$3:$B$1002</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="999"/>
+                <c:ptCount val="1000"/>
                 <c:pt idx="0">
                   <c:v>109</c:v>
                 </c:pt>
@@ -427,6 +436,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>102.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>102.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>103.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -450,10 +468,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Daily Log'!$A$3:$A$1001</c:f>
+              <c:f>'Daily Log'!$A$3:$A$1002</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="999"/>
+                <c:ptCount val="1000"/>
                 <c:pt idx="0">
                   <c:v>45884</c:v>
                 </c:pt>
@@ -519,16 +537,25 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45905</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45906</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45907</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily Log'!$C$3:$C$1001</c:f>
+              <c:f>'Daily Log'!$C$3:$C$1002</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="999"/>
+                <c:ptCount val="1000"/>
                 <c:pt idx="0">
                   <c:v>109.8</c:v>
                 </c:pt>
@@ -588,6 +615,15 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>103.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>103.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>103.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>103.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -748,10 +784,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Daily Log'!$A$3:$A$1001</c:f>
+              <c:f>'Daily Log'!$A$3:$A$1002</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="999"/>
+                <c:ptCount val="1000"/>
                 <c:pt idx="0">
                   <c:v>45884</c:v>
                 </c:pt>
@@ -817,16 +853,25 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45905</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45906</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45907</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily Log'!$D$3:$D$1001</c:f>
+              <c:f>'Daily Log'!$D$3:$D$1002</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="999"/>
+                <c:ptCount val="1000"/>
                 <c:pt idx="1">
                   <c:v>30.3</c:v>
                 </c:pt>
@@ -883,6 +928,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>29.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>30.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -906,10 +960,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Daily Log'!$A$3:$A$1001</c:f>
+              <c:f>'Daily Log'!$A$3:$A$1002</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="999"/>
+                <c:ptCount val="1000"/>
                 <c:pt idx="0">
                   <c:v>45884</c:v>
                 </c:pt>
@@ -975,16 +1029,25 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45905</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45906</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45907</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily Log'!$E$3:$E$1001</c:f>
+              <c:f>'Daily Log'!$E$3:$E$1002</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="999"/>
+                <c:ptCount val="1000"/>
                 <c:pt idx="0">
                   <c:v>29</c:v>
                 </c:pt>
@@ -1044,6 +1107,15 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29.1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1232,8 +1304,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DailyTable" displayName="DailyTable" ref="A2:H24" totalsRowShown="0">
-  <autoFilter ref="A2:H24" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DailyTable" displayName="DailyTable" ref="A2:H27" totalsRowShown="0">
+  <autoFilter ref="A2:H27" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="日期"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="早上體重 (kg)"/>
@@ -1535,10 +1607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -1981,10 +2053,70 @@
       <c r="B24">
         <v>103</v>
       </c>
+      <c r="C24">
+        <v>103.9</v>
+      </c>
       <c r="D24">
         <v>30</v>
       </c>
+      <c r="E24">
+        <v>28.5</v>
+      </c>
       <c r="F24">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
+        <v>45906</v>
+      </c>
+      <c r="B25">
+        <v>102.7</v>
+      </c>
+      <c r="C25">
+        <v>103.8</v>
+      </c>
+      <c r="D25">
+        <v>30</v>
+      </c>
+      <c r="E25">
+        <v>29.1</v>
+      </c>
+      <c r="F25">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
+        <v>45907</v>
+      </c>
+      <c r="B26">
+        <v>102.7</v>
+      </c>
+      <c r="C26">
+        <v>103.3</v>
+      </c>
+      <c r="D26">
+        <v>29.7</v>
+      </c>
+      <c r="E26">
+        <v>27.4</v>
+      </c>
+      <c r="F26">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" s="1">
+        <v>45908</v>
+      </c>
+      <c r="B27">
+        <v>103.1</v>
+      </c>
+      <c r="D27">
+        <v>30.1</v>
+      </c>
+      <c r="F27">
         <v>2.5</v>
       </c>
     </row>
@@ -2032,7 +2164,7 @@
       </c>
       <c r="B5" s="1">
         <f>IF(LEN(B2)&gt;0,B2,INDEX('Daily Log'!$A:$A,COUNTA('Daily Log'!$A:$A)-6))</f>
-        <v>45899</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -2041,7 +2173,7 @@
       </c>
       <c r="B6" s="1">
         <f>IF(LEN(B3)&gt;0,B3,INDEX('Daily Log'!$A:$A,COUNTA('Daily Log'!$A:$A)))</f>
-        <v>45905</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -2055,14 +2187,14 @@
       </c>
       <c r="B9" s="3">
         <f>INDEX('Daily Log'!$B:$B, MATCH($B$5,'Daily Log'!$A:$A, 0))</f>
-        <v>104.3</v>
+        <v>103.9</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="3">
         <f>INDEX('Daily Log'!$D:$D, MATCH($B$5,'Daily Log'!$A:$A, 0))</f>
-        <v>30.2</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -2071,14 +2203,14 @@
       </c>
       <c r="B10" s="3">
         <f>INDEX('Daily Log'!$B:$B, MATCH($B$6,'Daily Log'!$A:$A, 0))</f>
-        <v>103</v>
+        <v>103.1</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="3">
         <f>INDEX('Daily Log'!$D:$D, MATCH($B$6,'Daily Log'!$A:$A, 0))</f>
-        <v>30</v>
+        <v>30.1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -2087,14 +2219,14 @@
       </c>
       <c r="B11" s="3">
         <f>B10-B9</f>
-        <v>-1.2999999999999972</v>
+        <v>-0.80000000000001137</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="3">
         <f>E10-E9</f>
-        <v>-0.19999999999999929</v>
+        <v>0.40000000000000213</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -2103,14 +2235,14 @@
       </c>
       <c r="B12" s="3">
         <f>IFERROR(SUMIFS('Daily Log'!$B:$B,'Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6)/COUNTIFS('Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6),"")</f>
-        <v>103.6</v>
+        <v>103.11428571428573</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="3">
         <f>IFERROR(SUMIFS('Daily Log'!$D:$D,'Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6)/COUNTIFS('Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6),"")</f>
-        <v>29.971428571428568</v>
+        <v>29.857142857142854</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -2119,14 +2251,14 @@
       </c>
       <c r="B13" s="3">
         <f>INDEX('Daily Log'!$C:$C, MATCH($B$5,'Daily Log'!$A:$A, 0))</f>
-        <v>104.2</v>
+        <v>103.9</v>
       </c>
       <c r="D13" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="3">
         <f>INDEX('Daily Log'!$E:$E, MATCH($B$5,'Daily Log'!$A:$A, 0))</f>
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -2151,14 +2283,14 @@
       </c>
       <c r="B15" s="3">
         <f>B14-B13</f>
-        <v>-104.2</v>
+        <v>-103.9</v>
       </c>
       <c r="D15" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="3">
         <f>E14-E13</f>
-        <v>-27.9</v>
+        <v>-27.7</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -2167,14 +2299,14 @@
       </c>
       <c r="B16" s="3">
         <f>IFERROR(SUMIFS('Daily Log'!$C:$C,'Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6)/COUNTIFS('Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6),"")</f>
-        <v>88.999999999999986</v>
+        <v>88.871428571428552</v>
       </c>
       <c r="D16" t="s">
         <v>31</v>
       </c>
       <c r="E16" s="3">
         <f>IFERROR(SUMIFS('Daily Log'!$E:$E,'Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6)/COUNTIFS('Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6),"")</f>
-        <v>24.414285714285715</v>
+        <v>24.37142857142857</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -2183,14 +2315,14 @@
       </c>
       <c r="B17" s="3">
         <f>IF(AND(B12&lt;&gt;"",B16&lt;&gt;""),AVERAGE(B12,B16),"")</f>
-        <v>96.299999999999983</v>
+        <v>95.992857142857133</v>
       </c>
       <c r="D17" t="s">
         <v>32</v>
       </c>
       <c r="E17" s="3">
         <f>IF(AND(E12&lt;&gt;"",E16&lt;&gt;""),AVERAGE(E12,E16),"")</f>
-        <v>27.192857142857143</v>
+        <v>27.114285714285714</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">

--- a/GLP1_weight_tracking_master.xlsx
+++ b/GLP1_weight_tracking_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\rex\GLP1-weight-tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662918FF-A705-481B-803E-420885E95DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7835C32-9C53-4420-9E11-F9B3C9F59518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="26116" windowHeight="15661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,6 +368,12 @@
                 <c:pt idx="24">
                   <c:v>45908</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>45909</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45910</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -445,6 +451,12 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>103.1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>102.9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>102.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -547,6 +559,12 @@
                 <c:pt idx="24">
                   <c:v>45908</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>45909</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45910</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -623,6 +641,12 @@
                   <c:v>103.8</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>103.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>103.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>103.3</c:v>
                 </c:pt>
               </c:numCache>
@@ -863,6 +887,12 @@
                 <c:pt idx="24">
                   <c:v>45908</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>45909</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45910</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -937,6 +967,12 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>30.1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1039,6 +1075,12 @@
                 <c:pt idx="24">
                   <c:v>45908</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>45909</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45910</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1116,6 +1158,12 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>27.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27.1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>29.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1304,8 +1352,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DailyTable" displayName="DailyTable" ref="A2:H27" totalsRowShown="0">
-  <autoFilter ref="A2:H27" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DailyTable" displayName="DailyTable" ref="A2:H29" totalsRowShown="0">
+  <autoFilter ref="A2:H29" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="日期"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="早上體重 (kg)"/>
@@ -1607,10 +1655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -2113,10 +2161,50 @@
       <c r="B27">
         <v>103.1</v>
       </c>
+      <c r="C27">
+        <v>103.5</v>
+      </c>
       <c r="D27">
         <v>30.1</v>
       </c>
+      <c r="E27">
+        <v>27.1</v>
+      </c>
       <c r="F27">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" s="1">
+        <v>45909</v>
+      </c>
+      <c r="B28">
+        <v>102.9</v>
+      </c>
+      <c r="C28">
+        <v>103.3</v>
+      </c>
+      <c r="D28">
+        <v>30.4</v>
+      </c>
+      <c r="E28">
+        <v>29.5</v>
+      </c>
+      <c r="F28">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B29">
+        <v>102.5</v>
+      </c>
+      <c r="D29">
+        <v>30</v>
+      </c>
+      <c r="F29">
         <v>2.5</v>
       </c>
     </row>
@@ -2164,7 +2252,7 @@
       </c>
       <c r="B5" s="1">
         <f>IF(LEN(B2)&gt;0,B2,INDEX('Daily Log'!$A:$A,COUNTA('Daily Log'!$A:$A)-6))</f>
-        <v>45902</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -2173,7 +2261,7 @@
       </c>
       <c r="B6" s="1">
         <f>IF(LEN(B3)&gt;0,B3,INDEX('Daily Log'!$A:$A,COUNTA('Daily Log'!$A:$A)))</f>
-        <v>45908</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -2187,14 +2275,14 @@
       </c>
       <c r="B9" s="3">
         <f>INDEX('Daily Log'!$B:$B, MATCH($B$5,'Daily Log'!$A:$A, 0))</f>
-        <v>103.9</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="3">
         <f>INDEX('Daily Log'!$D:$D, MATCH($B$5,'Daily Log'!$A:$A, 0))</f>
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -2203,14 +2291,14 @@
       </c>
       <c r="B10" s="3">
         <f>INDEX('Daily Log'!$B:$B, MATCH($B$6,'Daily Log'!$A:$A, 0))</f>
-        <v>103.1</v>
+        <v>102.5</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="3">
         <f>INDEX('Daily Log'!$D:$D, MATCH($B$6,'Daily Log'!$A:$A, 0))</f>
-        <v>30.1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -2219,14 +2307,14 @@
       </c>
       <c r="B11" s="3">
         <f>B10-B9</f>
-        <v>-0.80000000000001137</v>
+        <v>-0.5</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="3">
         <f>E10-E9</f>
-        <v>0.40000000000000213</v>
+        <v>0.39999999999999858</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -2235,14 +2323,14 @@
       </c>
       <c r="B12" s="3">
         <f>IFERROR(SUMIFS('Daily Log'!$B:$B,'Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6)/COUNTIFS('Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6),"")</f>
-        <v>103.11428571428573</v>
+        <v>102.84285714285714</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="3">
         <f>IFERROR(SUMIFS('Daily Log'!$D:$D,'Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6)/COUNTIFS('Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6),"")</f>
-        <v>29.857142857142854</v>
+        <v>29.971428571428572</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -2251,14 +2339,14 @@
       </c>
       <c r="B13" s="3">
         <f>INDEX('Daily Log'!$C:$C, MATCH($B$5,'Daily Log'!$A:$A, 0))</f>
-        <v>103.9</v>
+        <v>103.8</v>
       </c>
       <c r="D13" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="3">
         <f>INDEX('Daily Log'!$E:$E, MATCH($B$5,'Daily Log'!$A:$A, 0))</f>
-        <v>27.7</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -2283,14 +2371,14 @@
       </c>
       <c r="B15" s="3">
         <f>B14-B13</f>
-        <v>-103.9</v>
+        <v>-103.8</v>
       </c>
       <c r="D15" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="3">
         <f>E14-E13</f>
-        <v>-27.7</v>
+        <v>-29.5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -2299,14 +2387,14 @@
       </c>
       <c r="B16" s="3">
         <f>IFERROR(SUMIFS('Daily Log'!$C:$C,'Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6)/COUNTIFS('Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6),"")</f>
-        <v>88.871428571428552</v>
+        <v>88.799999999999983</v>
       </c>
       <c r="D16" t="s">
         <v>31</v>
       </c>
       <c r="E16" s="3">
         <f>IFERROR(SUMIFS('Daily Log'!$E:$E,'Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6)/COUNTIFS('Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6),"")</f>
-        <v>24.37142857142857</v>
+        <v>24.442857142857143</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -2315,14 +2403,14 @@
       </c>
       <c r="B17" s="3">
         <f>IF(AND(B12&lt;&gt;"",B16&lt;&gt;""),AVERAGE(B12,B16),"")</f>
-        <v>95.992857142857133</v>
+        <v>95.821428571428555</v>
       </c>
       <c r="D17" t="s">
         <v>32</v>
       </c>
       <c r="E17" s="3">
         <f>IF(AND(E12&lt;&gt;"",E16&lt;&gt;""),AVERAGE(E12,E16),"")</f>
-        <v>27.114285714285714</v>
+        <v>27.207142857142856</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">

--- a/GLP1_weight_tracking_master.xlsx
+++ b/GLP1_weight_tracking_master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\rex\GLP1-weight-tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7835C32-9C53-4420-9E11-F9B3C9F59518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811497FD-5FCD-4036-933C-01CE1293EA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="26116" windowHeight="15661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Log" sheetId="1" r:id="rId1"/>
@@ -374,6 +374,12 @@
                 <c:pt idx="26">
                   <c:v>45910</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>45911</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45912</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -457,6 +463,12 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>102.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>102.6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>102.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -565,6 +577,12 @@
                 <c:pt idx="26">
                   <c:v>45910</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>45911</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45912</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -648,6 +666,12 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>103.3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>103.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -893,6 +917,12 @@
                 <c:pt idx="26">
                   <c:v>45910</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>45911</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45912</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -973,6 +1003,12 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29.9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1081,6 +1117,12 @@
                 <c:pt idx="26">
                   <c:v>45910</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>45911</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45912</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1164,6 +1206,12 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29.9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1352,8 +1400,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DailyTable" displayName="DailyTable" ref="A2:H29" totalsRowShown="0">
-  <autoFilter ref="A2:H29" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DailyTable" displayName="DailyTable" ref="A2:H31" totalsRowShown="0">
+  <autoFilter ref="A2:H31" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="日期"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="早上體重 (kg)"/>
@@ -1655,24 +1703,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="14.7109375" customWidth="1"/>
     <col min="6" max="8" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1698,7 +1746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45884</v>
       </c>
@@ -1715,7 +1763,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45885</v>
       </c>
@@ -1735,7 +1783,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45886</v>
       </c>
@@ -1755,7 +1803,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45887</v>
       </c>
@@ -1775,7 +1823,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45888</v>
       </c>
@@ -1795,7 +1843,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45889</v>
       </c>
@@ -1815,7 +1863,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45890</v>
       </c>
@@ -1835,7 +1883,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45891</v>
       </c>
@@ -1855,12 +1903,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45892</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45893</v>
       </c>
@@ -1874,7 +1922,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45894</v>
       </c>
@@ -1894,7 +1942,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45895</v>
       </c>
@@ -1914,7 +1962,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45896</v>
       </c>
@@ -1934,7 +1982,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45897</v>
       </c>
@@ -1954,7 +2002,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45898</v>
       </c>
@@ -1974,7 +2022,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45899</v>
       </c>
@@ -1994,7 +2042,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45900</v>
       </c>
@@ -2014,7 +2062,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45901</v>
       </c>
@@ -2034,7 +2082,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45902</v>
       </c>
@@ -2054,7 +2102,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45903</v>
       </c>
@@ -2074,7 +2122,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45904</v>
       </c>
@@ -2094,7 +2142,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45905</v>
       </c>
@@ -2114,7 +2162,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45906</v>
       </c>
@@ -2134,7 +2182,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45907</v>
       </c>
@@ -2154,7 +2202,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45908</v>
       </c>
@@ -2174,7 +2222,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45909</v>
       </c>
@@ -2194,17 +2242,57 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45910</v>
       </c>
       <c r="B29">
         <v>102.5</v>
       </c>
+      <c r="C29">
+        <v>103.5</v>
+      </c>
       <c r="D29">
         <v>30</v>
       </c>
+      <c r="E29">
+        <v>29.9</v>
+      </c>
       <c r="F29">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>45911</v>
+      </c>
+      <c r="B30">
+        <v>102.6</v>
+      </c>
+      <c r="C30">
+        <v>103</v>
+      </c>
+      <c r="D30">
+        <v>29.9</v>
+      </c>
+      <c r="E30">
+        <v>29.3</v>
+      </c>
+      <c r="F30">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>45912</v>
+      </c>
+      <c r="B31">
+        <v>102.6</v>
+      </c>
+      <c r="D31">
+        <v>30.2</v>
+      </c>
+      <c r="F31">
         <v>2.5</v>
       </c>
     </row>
@@ -2225,115 +2313,115 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.7109375" customWidth="1"/>
     <col min="2" max="4" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1">
         <f>IF(LEN(B2)&gt;0,B2,INDEX('Daily Log'!$A:$A,COUNTA('Daily Log'!$A:$A)-6))</f>
-        <v>45904</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+        <v>45906</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="1">
         <f>IF(LEN(B3)&gt;0,B3,INDEX('Daily Log'!$A:$A,COUNTA('Daily Log'!$A:$A)))</f>
-        <v>45910</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="3">
         <f>INDEX('Daily Log'!$B:$B, MATCH($B$5,'Daily Log'!$A:$A, 0))</f>
-        <v>103</v>
+        <v>102.7</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="3">
         <f>INDEX('Daily Log'!$D:$D, MATCH($B$5,'Daily Log'!$A:$A, 0))</f>
-        <v>29.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="3">
         <f>INDEX('Daily Log'!$B:$B, MATCH($B$6,'Daily Log'!$A:$A, 0))</f>
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="3">
         <f>INDEX('Daily Log'!$D:$D, MATCH($B$6,'Daily Log'!$A:$A, 0))</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="3">
         <f>B10-B9</f>
-        <v>-0.5</v>
+        <v>-0.10000000000000853</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="3">
         <f>E10-E9</f>
-        <v>0.39999999999999858</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+        <v>0.19999999999999929</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="3">
         <f>IFERROR(SUMIFS('Daily Log'!$B:$B,'Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6)/COUNTIFS('Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6),"")</f>
-        <v>102.84285714285714</v>
+        <v>102.72857142857143</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="3">
         <f>IFERROR(SUMIFS('Daily Log'!$D:$D,'Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6)/COUNTIFS('Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6),"")</f>
-        <v>29.971428571428572</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+        <v>30.042857142857144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2346,10 +2434,10 @@
       </c>
       <c r="E13" s="3">
         <f>INDEX('Daily Log'!$E:$E, MATCH($B$5,'Daily Log'!$A:$A, 0))</f>
-        <v>29.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2365,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -2378,47 +2466,47 @@
       </c>
       <c r="E15" s="3">
         <f>E14-E13</f>
-        <v>-29.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+        <v>-29.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="3">
         <f>IFERROR(SUMIFS('Daily Log'!$C:$C,'Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6)/COUNTIFS('Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6),"")</f>
-        <v>88.799999999999983</v>
+        <v>88.628571428571448</v>
       </c>
       <c r="D16" t="s">
         <v>31</v>
       </c>
       <c r="E16" s="3">
         <f>IFERROR(SUMIFS('Daily Log'!$E:$E,'Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6)/COUNTIFS('Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6),"")</f>
-        <v>24.442857142857143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+        <v>24.614285714285717</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="3">
         <f>IF(AND(B12&lt;&gt;"",B16&lt;&gt;""),AVERAGE(B12,B16),"")</f>
-        <v>95.821428571428555</v>
+        <v>95.678571428571445</v>
       </c>
       <c r="D17" t="s">
         <v>32</v>
       </c>
       <c r="E17" s="3">
         <f>IF(AND(E12&lt;&gt;"",E16&lt;&gt;""),AVERAGE(E12,E16),"")</f>
-        <v>27.207142857142856</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+        <v>27.328571428571429</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -2427,7 +2515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -2448,9 +2536,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
@@ -2470,12 +2558,12 @@
       <selection activeCell="A8" sqref="A8:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="100.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="180" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" ht="189" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>37</v>
       </c>

--- a/GLP1_weight_tracking_master.xlsx
+++ b/GLP1_weight_tracking_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\rex\GLP1-weight-tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811497FD-5FCD-4036-933C-01CE1293EA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6713DE51-A7E2-4EC0-B2BC-EA689CB99C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -380,6 +380,24 @@
                 <c:pt idx="28">
                   <c:v>45912</c:v>
                 </c:pt>
+                <c:pt idx="29">
+                  <c:v>45913</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45914</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45915</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45916</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45917</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45918</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -469,6 +487,24 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>102.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>102.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>101.4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>102.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>102.1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>101.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -583,6 +619,24 @@
                 <c:pt idx="28">
                   <c:v>45912</c:v>
                 </c:pt>
+                <c:pt idx="29">
+                  <c:v>45913</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45914</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45915</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45916</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45917</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45918</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -672,6 +726,24 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>102.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>102.7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>102.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>102.6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>102.7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>102.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -923,6 +995,24 @@
                 <c:pt idx="28">
                   <c:v>45912</c:v>
                 </c:pt>
+                <c:pt idx="29">
+                  <c:v>45913</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45914</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45915</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45916</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45917</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45918</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1009,6 +1099,24 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>30.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>29.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>29.3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>29.1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>29.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1123,6 +1231,24 @@
                 <c:pt idx="28">
                   <c:v>45912</c:v>
                 </c:pt>
+                <c:pt idx="29">
+                  <c:v>45913</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45914</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45915</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45916</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45917</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45918</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1212,6 +1338,24 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>29.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>28.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>26.3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>27.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1400,8 +1544,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DailyTable" displayName="DailyTable" ref="A2:H31" totalsRowShown="0">
-  <autoFilter ref="A2:H31" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DailyTable" displayName="DailyTable" ref="A2:H37" totalsRowShown="0">
+  <autoFilter ref="A2:H37" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="日期"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="早上體重 (kg)"/>
@@ -1703,10 +1847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2289,11 +2433,131 @@
       <c r="B31">
         <v>102.6</v>
       </c>
+      <c r="C31">
+        <v>102.6</v>
+      </c>
       <c r="D31">
         <v>30.2</v>
       </c>
+      <c r="E31">
+        <v>30.2</v>
+      </c>
       <c r="F31">
-        <v>2.5</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>45913</v>
+      </c>
+      <c r="B32">
+        <v>102.9</v>
+      </c>
+      <c r="C32">
+        <v>102.7</v>
+      </c>
+      <c r="D32">
+        <v>29.2</v>
+      </c>
+      <c r="E32">
+        <v>28.6</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>45914</v>
+      </c>
+      <c r="B33">
+        <v>101.4</v>
+      </c>
+      <c r="C33">
+        <v>102.5</v>
+      </c>
+      <c r="D33">
+        <v>29.3</v>
+      </c>
+      <c r="E33">
+        <v>28</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>45915</v>
+      </c>
+      <c r="B34">
+        <v>102</v>
+      </c>
+      <c r="C34">
+        <v>102.6</v>
+      </c>
+      <c r="D34">
+        <v>29.3</v>
+      </c>
+      <c r="E34">
+        <v>27.5</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>45916</v>
+      </c>
+      <c r="B35">
+        <v>102.2</v>
+      </c>
+      <c r="C35">
+        <v>102.7</v>
+      </c>
+      <c r="D35">
+        <v>29.5</v>
+      </c>
+      <c r="E35">
+        <v>26.3</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>45917</v>
+      </c>
+      <c r="B36">
+        <v>102.1</v>
+      </c>
+      <c r="C36">
+        <v>102.5</v>
+      </c>
+      <c r="D36">
+        <v>29.1</v>
+      </c>
+      <c r="E36">
+        <v>27.7</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>45918</v>
+      </c>
+      <c r="B37">
+        <v>101.3</v>
+      </c>
+      <c r="D37">
+        <v>29.7</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2340,7 +2604,7 @@
       </c>
       <c r="B5" s="1">
         <f>IF(LEN(B2)&gt;0,B2,INDEX('Daily Log'!$A:$A,COUNTA('Daily Log'!$A:$A)-6))</f>
-        <v>45906</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2349,7 +2613,7 @@
       </c>
       <c r="B6" s="1">
         <f>IF(LEN(B3)&gt;0,B3,INDEX('Daily Log'!$A:$A,COUNTA('Daily Log'!$A:$A)))</f>
-        <v>45912</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2363,14 +2627,14 @@
       </c>
       <c r="B9" s="3">
         <f>INDEX('Daily Log'!$B:$B, MATCH($B$5,'Daily Log'!$A:$A, 0))</f>
-        <v>102.7</v>
+        <v>102.6</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="3">
         <f>INDEX('Daily Log'!$D:$D, MATCH($B$5,'Daily Log'!$A:$A, 0))</f>
-        <v>30</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2379,14 +2643,14 @@
       </c>
       <c r="B10" s="3">
         <f>INDEX('Daily Log'!$B:$B, MATCH($B$6,'Daily Log'!$A:$A, 0))</f>
-        <v>102.6</v>
+        <v>101.3</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="3">
         <f>INDEX('Daily Log'!$D:$D, MATCH($B$6,'Daily Log'!$A:$A, 0))</f>
-        <v>30.2</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2395,14 +2659,14 @@
       </c>
       <c r="B11" s="3">
         <f>B10-B9</f>
-        <v>-0.10000000000000853</v>
+        <v>-1.2999999999999972</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="3">
         <f>E10-E9</f>
-        <v>0.19999999999999929</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2411,14 +2675,14 @@
       </c>
       <c r="B12" s="3">
         <f>IFERROR(SUMIFS('Daily Log'!$B:$B,'Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6)/COUNTIFS('Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6),"")</f>
-        <v>102.72857142857143</v>
+        <v>102.07142857142856</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="3">
         <f>IFERROR(SUMIFS('Daily Log'!$D:$D,'Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6)/COUNTIFS('Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6),"")</f>
-        <v>30.042857142857144</v>
+        <v>29.471428571428568</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2427,14 +2691,14 @@
       </c>
       <c r="B13" s="3">
         <f>INDEX('Daily Log'!$C:$C, MATCH($B$5,'Daily Log'!$A:$A, 0))</f>
-        <v>103.8</v>
+        <v>102.6</v>
       </c>
       <c r="D13" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="3">
         <f>INDEX('Daily Log'!$E:$E, MATCH($B$5,'Daily Log'!$A:$A, 0))</f>
-        <v>29.1</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2459,14 +2723,14 @@
       </c>
       <c r="B15" s="3">
         <f>B14-B13</f>
-        <v>-103.8</v>
+        <v>-102.6</v>
       </c>
       <c r="D15" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="3">
         <f>E14-E13</f>
-        <v>-29.1</v>
+        <v>-30.2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2475,14 +2739,14 @@
       </c>
       <c r="B16" s="3">
         <f>IFERROR(SUMIFS('Daily Log'!$C:$C,'Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6)/COUNTIFS('Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6),"")</f>
-        <v>88.628571428571448</v>
+        <v>87.94285714285715</v>
       </c>
       <c r="D16" t="s">
         <v>31</v>
       </c>
       <c r="E16" s="3">
         <f>IFERROR(SUMIFS('Daily Log'!$E:$E,'Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6)/COUNTIFS('Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6),"")</f>
-        <v>24.614285714285717</v>
+        <v>24.042857142857141</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2491,14 +2755,14 @@
       </c>
       <c r="B17" s="3">
         <f>IF(AND(B12&lt;&gt;"",B16&lt;&gt;""),AVERAGE(B12,B16),"")</f>
-        <v>95.678571428571445</v>
+        <v>95.007142857142853</v>
       </c>
       <c r="D17" t="s">
         <v>32</v>
       </c>
       <c r="E17" s="3">
         <f>IF(AND(E12&lt;&gt;"",E16&lt;&gt;""),AVERAGE(E12,E16),"")</f>
-        <v>27.328571428571429</v>
+        <v>26.757142857142853</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">

--- a/GLP1_weight_tracking_master.xlsx
+++ b/GLP1_weight_tracking_master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\rex\GLP1-weight-tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6713DE51-A7E2-4EC0-B2BC-EA689CB99C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4582FE1A-59A7-4780-BACE-520C6C5850DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Log" sheetId="1" r:id="rId1"/>
@@ -289,10 +289,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Daily Log'!$A$3:$A$1002</c:f>
+              <c:f>'Daily Log'!$A$3:$A$998</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="1000"/>
+                <c:ptCount val="996"/>
                 <c:pt idx="0">
                   <c:v>45884</c:v>
                 </c:pt>
@@ -397,16 +397,37 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45918</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45919</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45920</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45921</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45922</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45923</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45924</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily Log'!$B$3:$B$1002</c:f>
+              <c:f>'Daily Log'!$B$3:$B$998</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1000"/>
+                <c:ptCount val="996"/>
                 <c:pt idx="0">
                   <c:v>109</c:v>
                 </c:pt>
@@ -505,6 +526,21 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>101.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>101.4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>101.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>100.6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>100.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -528,10 +564,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Daily Log'!$A$3:$A$1002</c:f>
+              <c:f>'Daily Log'!$A$3:$A$998</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="1000"/>
+                <c:ptCount val="996"/>
                 <c:pt idx="0">
                   <c:v>45884</c:v>
                 </c:pt>
@@ -636,16 +672,37 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45918</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45919</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45920</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45921</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45922</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45923</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45924</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily Log'!$C$3:$C$1002</c:f>
+              <c:f>'Daily Log'!$C$3:$C$998</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1000"/>
+                <c:ptCount val="996"/>
                 <c:pt idx="0">
                   <c:v>109.8</c:v>
                 </c:pt>
@@ -744,6 +801,24 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>102.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>101.7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>102.2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>101.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>101.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>100.7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>101.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -904,10 +979,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Daily Log'!$A$3:$A$1002</c:f>
+              <c:f>'Daily Log'!$A$3:$A$998</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="1000"/>
+                <c:ptCount val="996"/>
                 <c:pt idx="0">
                   <c:v>45884</c:v>
                 </c:pt>
@@ -1012,16 +1087,37 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45918</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45919</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45920</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45921</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45922</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45923</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45924</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily Log'!$D$3:$D$1002</c:f>
+              <c:f>'Daily Log'!$D$3:$D$998</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1000"/>
+                <c:ptCount val="996"/>
                 <c:pt idx="1">
                   <c:v>30.3</c:v>
                 </c:pt>
@@ -1117,6 +1213,21 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>29.7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>29.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1140,10 +1251,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Daily Log'!$A$3:$A$1002</c:f>
+              <c:f>'Daily Log'!$A$3:$A$998</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="1000"/>
+                <c:ptCount val="996"/>
                 <c:pt idx="0">
                   <c:v>45884</c:v>
                 </c:pt>
@@ -1248,16 +1359,37 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45918</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45919</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45920</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45921</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45922</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45923</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45924</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Daily Log'!$E$3:$E$1002</c:f>
+              <c:f>'Daily Log'!$E$3:$E$998</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1000"/>
+                <c:ptCount val="996"/>
                 <c:pt idx="0">
                   <c:v>29</c:v>
                 </c:pt>
@@ -1356,6 +1488,24 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>27.7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>27.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>26.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>29.3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>28.2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>27.1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>26.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1544,8 +1694,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DailyTable" displayName="DailyTable" ref="A2:H37" totalsRowShown="0">
-  <autoFilter ref="A2:H37" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DailyTable" displayName="DailyTable" ref="A2:H44" totalsRowShown="0">
+  <autoFilter ref="A2:H44" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="日期"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="早上體重 (kg)"/>
@@ -1847,24 +1997,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="8" width="18.7109375" customWidth="1"/>
+    <col min="1" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="8" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1890,7 +2040,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45884</v>
       </c>
@@ -1907,7 +2057,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45885</v>
       </c>
@@ -1927,7 +2077,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45886</v>
       </c>
@@ -1947,7 +2097,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45887</v>
       </c>
@@ -1967,7 +2117,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45888</v>
       </c>
@@ -1987,7 +2137,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45889</v>
       </c>
@@ -2007,7 +2157,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45890</v>
       </c>
@@ -2027,7 +2177,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45891</v>
       </c>
@@ -2047,12 +2197,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45892</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45893</v>
       </c>
@@ -2066,7 +2216,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45894</v>
       </c>
@@ -2086,7 +2236,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45895</v>
       </c>
@@ -2106,7 +2256,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45896</v>
       </c>
@@ -2126,7 +2276,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45897</v>
       </c>
@@ -2146,7 +2296,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45898</v>
       </c>
@@ -2166,7 +2316,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45899</v>
       </c>
@@ -2186,7 +2336,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45900</v>
       </c>
@@ -2206,7 +2356,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>45901</v>
       </c>
@@ -2226,7 +2376,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>45902</v>
       </c>
@@ -2246,7 +2396,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>45903</v>
       </c>
@@ -2266,7 +2416,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>45904</v>
       </c>
@@ -2286,7 +2436,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>45905</v>
       </c>
@@ -2306,7 +2456,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>45906</v>
       </c>
@@ -2326,7 +2476,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>45907</v>
       </c>
@@ -2346,7 +2496,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>45908</v>
       </c>
@@ -2366,7 +2516,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>45909</v>
       </c>
@@ -2386,7 +2536,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>45910</v>
       </c>
@@ -2406,7 +2556,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>45911</v>
       </c>
@@ -2426,7 +2576,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>45912</v>
       </c>
@@ -2446,7 +2596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>45913</v>
       </c>
@@ -2466,7 +2616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>45914</v>
       </c>
@@ -2486,7 +2636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>45915</v>
       </c>
@@ -2506,7 +2656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>45916</v>
       </c>
@@ -2526,7 +2676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>45917</v>
       </c>
@@ -2546,18 +2696,119 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>45918</v>
       </c>
       <c r="B37">
         <v>101.3</v>
       </c>
+      <c r="C37">
+        <v>101.7</v>
+      </c>
       <c r="D37">
         <v>29.7</v>
       </c>
+      <c r="E37">
+        <v>27.6</v>
+      </c>
       <c r="F37">
         <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>45919</v>
+      </c>
+      <c r="B38">
+        <v>101.4</v>
+      </c>
+      <c r="D38">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>45921</v>
+      </c>
+      <c r="C40">
+        <v>102.2</v>
+      </c>
+      <c r="E40">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>45922</v>
+      </c>
+      <c r="B41">
+        <v>101.5</v>
+      </c>
+      <c r="C41">
+        <v>101.8</v>
+      </c>
+      <c r="D41">
+        <v>29.5</v>
+      </c>
+      <c r="E41">
+        <v>29.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>45923</v>
+      </c>
+      <c r="B42">
+        <v>101</v>
+      </c>
+      <c r="C42">
+        <v>101.4</v>
+      </c>
+      <c r="D42">
+        <v>29.5</v>
+      </c>
+      <c r="E42">
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>45924</v>
+      </c>
+      <c r="B43">
+        <v>100.6</v>
+      </c>
+      <c r="C43">
+        <v>100.7</v>
+      </c>
+      <c r="D43">
+        <v>29.5</v>
+      </c>
+      <c r="E43">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>45925</v>
+      </c>
+      <c r="B44">
+        <v>100.8</v>
+      </c>
+      <c r="C44">
+        <v>101.9</v>
+      </c>
+      <c r="D44">
+        <v>29.6</v>
+      </c>
+      <c r="E44">
+        <v>26.2</v>
       </c>
     </row>
   </sheetData>
@@ -2577,200 +2828,200 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="4" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="32.75" customWidth="1"/>
+    <col min="2" max="4" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1">
         <f>IF(LEN(B2)&gt;0,B2,INDEX('Daily Log'!$A:$A,COUNTA('Daily Log'!$A:$A)-6))</f>
-        <v>45912</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="1">
         <f>IF(LEN(B3)&gt;0,B3,INDEX('Daily Log'!$A:$A,COUNTA('Daily Log'!$A:$A)))</f>
-        <v>45918</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45925</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="3">
         <f>INDEX('Daily Log'!$B:$B, MATCH($B$5,'Daily Log'!$A:$A, 0))</f>
-        <v>102.6</v>
+        <v>101.4</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="3">
         <f>INDEX('Daily Log'!$D:$D, MATCH($B$5,'Daily Log'!$A:$A, 0))</f>
-        <v>30.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="3">
         <f>INDEX('Daily Log'!$B:$B, MATCH($B$6,'Daily Log'!$A:$A, 0))</f>
-        <v>101.3</v>
+        <v>100.8</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="3">
         <f>INDEX('Daily Log'!$D:$D, MATCH($B$6,'Daily Log'!$A:$A, 0))</f>
-        <v>29.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="3">
         <f>B10-B9</f>
-        <v>-1.2999999999999972</v>
+        <v>-0.60000000000000853</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="3">
         <f>E10-E9</f>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.60000000000000142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="3">
         <f>IFERROR(SUMIFS('Daily Log'!$B:$B,'Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6)/COUNTIFS('Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6),"")</f>
-        <v>102.07142857142856</v>
+        <v>72.185714285714283</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="3">
         <f>IFERROR(SUMIFS('Daily Log'!$D:$D,'Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6)/COUNTIFS('Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6),"")</f>
-        <v>29.471428571428568</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21.014285714285712</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="3">
         <f>INDEX('Daily Log'!$C:$C, MATCH($B$5,'Daily Log'!$A:$A, 0))</f>
-        <v>102.6</v>
+        <v>0</v>
       </c>
       <c r="D13" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="3">
         <f>INDEX('Daily Log'!$E:$E, MATCH($B$5,'Daily Log'!$A:$A, 0))</f>
-        <v>30.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="3">
         <f>INDEX('Daily Log'!$C:$C, MATCH($B$6,'Daily Log'!$A:$A, 0))</f>
-        <v>0</v>
+        <v>101.9</v>
       </c>
       <c r="D14" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="3">
         <f>INDEX('Daily Log'!$E:$E, MATCH($B$6,'Daily Log'!$A:$A, 0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="3">
         <f>B14-B13</f>
-        <v>-102.6</v>
+        <v>101.9</v>
       </c>
       <c r="D15" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="3">
         <f>E14-E13</f>
-        <v>-30.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="3">
         <f>IFERROR(SUMIFS('Daily Log'!$C:$C,'Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6)/COUNTIFS('Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6),"")</f>
-        <v>87.94285714285715</v>
+        <v>72.571428571428569</v>
       </c>
       <c r="D16" t="s">
         <v>31</v>
       </c>
       <c r="E16" s="3">
         <f>IFERROR(SUMIFS('Daily Log'!$E:$E,'Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6)/COUNTIFS('Daily Log'!$A:$A,"&gt;="&amp;$B$5,'Daily Log'!$A:$A,"&lt;="&amp;$B$6),"")</f>
-        <v>24.042857142857141</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19.642857142857142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="3">
         <f>IF(AND(B12&lt;&gt;"",B16&lt;&gt;""),AVERAGE(B12,B16),"")</f>
-        <v>95.007142857142853</v>
+        <v>72.378571428571433</v>
       </c>
       <c r="D17" t="s">
         <v>32</v>
       </c>
       <c r="E17" s="3">
         <f>IF(AND(E12&lt;&gt;"",E16&lt;&gt;""),AVERAGE(E12,E16),"")</f>
-        <v>26.757142857142853</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20.328571428571429</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -2779,7 +3030,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -2800,9 +3051,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
@@ -2822,12 +3073,12 @@
       <selection activeCell="A8" sqref="A8:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="100.7109375" customWidth="1"/>
+    <col min="1" max="1" width="100.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="189" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="180" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>37</v>
       </c>
